--- a/simulation_data/one_step_algorithm/1s_error_level_11_percent_water_20.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_11_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.60902880541099</v>
+        <v>90.04139630269167</v>
       </c>
       <c r="D2" t="n">
-        <v>3.571907131531154</v>
+        <v>3.178468226636612</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.68429116457627</v>
+        <v>88.2522489358404</v>
       </c>
       <c r="D3" t="n">
-        <v>3.910520767202557</v>
+        <v>3.895603634183556</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.82278205841307</v>
+        <v>88.15197060434019</v>
       </c>
       <c r="D4" t="n">
-        <v>3.55115934936125</v>
+        <v>3.870818340260384</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.45442991466629</v>
+        <v>86.85179643117023</v>
       </c>
       <c r="D5" t="n">
-        <v>3.473743346283132</v>
+        <v>3.865246413275444</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.06786399882181</v>
+        <v>85.7487874475637</v>
       </c>
       <c r="D6" t="n">
-        <v>3.999607005395379</v>
+        <v>3.931326339316161</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.44561634158207</v>
+        <v>84.34754386203987</v>
       </c>
       <c r="D7" t="n">
-        <v>4.058204450639081</v>
+        <v>4.763264569802477</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.42777379500608</v>
+        <v>83.23734309363219</v>
       </c>
       <c r="D8" t="n">
-        <v>4.410271216764785</v>
+        <v>3.910196167390591</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.3700986085654</v>
+        <v>82.71058148988652</v>
       </c>
       <c r="D9" t="n">
-        <v>4.040037616253805</v>
+        <v>4.052551768210071</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.07176050746965</v>
+        <v>81.70713705747222</v>
       </c>
       <c r="D10" t="n">
-        <v>3.71654564677536</v>
+        <v>4.111931017344736</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.34663199134769</v>
+        <v>79.74495058075105</v>
       </c>
       <c r="D11" t="n">
-        <v>3.783065440105958</v>
+        <v>4.734177929359199</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.71282900172737</v>
+        <v>79.37526282126612</v>
       </c>
       <c r="D12" t="n">
-        <v>4.719687592098054</v>
+        <v>4.41997424684457</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.70722475961996</v>
+        <v>78.19972588517629</v>
       </c>
       <c r="D13" t="n">
-        <v>4.614114027577123</v>
+        <v>4.057552127806231</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.23850109770922</v>
+        <v>78.26857991358587</v>
       </c>
       <c r="D14" t="n">
-        <v>4.126633155631985</v>
+        <v>3.727340246222163</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.46330302817917</v>
+        <v>76.97022063491005</v>
       </c>
       <c r="D15" t="n">
-        <v>4.461945975091962</v>
+        <v>4.7035088466315</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.37763079285043</v>
+        <v>76.18296964539236</v>
       </c>
       <c r="D16" t="n">
-        <v>3.805254138202105</v>
+        <v>4.114406146853768</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.93059724710322</v>
+        <v>74.52271877508755</v>
       </c>
       <c r="D17" t="n">
-        <v>5.350050240350774</v>
+        <v>4.686425433462968</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.82127639796079</v>
+        <v>73.09201491003202</v>
       </c>
       <c r="D18" t="n">
-        <v>4.36847112878886</v>
+        <v>4.671591717829509</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.77434397555184</v>
+        <v>72.52535828340609</v>
       </c>
       <c r="D19" t="n">
-        <v>4.683908167916597</v>
+        <v>4.176326803733314</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.24622619869359</v>
+        <v>71.17310917077207</v>
       </c>
       <c r="D20" t="n">
-        <v>5.6256997916546</v>
+        <v>5.286953998109286</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.48026937294699</v>
+        <v>70.60922880680933</v>
       </c>
       <c r="D21" t="n">
-        <v>4.972600133801703</v>
+        <v>4.303511020211245</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.05500816259065</v>
+        <v>69.71944130589719</v>
       </c>
       <c r="D22" t="n">
-        <v>5.425098292994142</v>
+        <v>4.437882913886035</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.40444020589219</v>
+        <v>67.99938612110482</v>
       </c>
       <c r="D23" t="n">
-        <v>5.624187754589602</v>
+        <v>5.878982293833406</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.63990157964149</v>
+        <v>68.05716227751866</v>
       </c>
       <c r="D24" t="n">
-        <v>5.740821138725918</v>
+        <v>4.726894107169003</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.12524393301729</v>
+        <v>66.36876761185303</v>
       </c>
       <c r="D25" t="n">
-        <v>4.761037054989932</v>
+        <v>5.633398372356904</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.79944980969884</v>
+        <v>64.98576195517344</v>
       </c>
       <c r="D26" t="n">
-        <v>5.698031252096222</v>
+        <v>5.291230226819934</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.49072330542103</v>
+        <v>65.15471808572198</v>
       </c>
       <c r="D27" t="n">
-        <v>5.826943209288585</v>
+        <v>5.913404424354346</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>62.44706126812748</v>
+        <v>63.99849845642838</v>
       </c>
       <c r="D28" t="n">
-        <v>6.050457569070097</v>
+        <v>6.220104901499574</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>61.88899269434952</v>
+        <v>63.60937220546339</v>
       </c>
       <c r="D29" t="n">
-        <v>6.105989273253145</v>
+        <v>5.459153883376685</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.02551439252306</v>
+        <v>61.30565334504085</v>
       </c>
       <c r="D30" t="n">
-        <v>5.60028424233358</v>
+        <v>5.066895396120263</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.07897932024166</v>
+        <v>60.84615786912211</v>
       </c>
       <c r="D31" t="n">
-        <v>5.546170784080475</v>
+        <v>5.98446755144793</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.99516401330065</v>
+        <v>58.97185864070011</v>
       </c>
       <c r="D32" t="n">
-        <v>5.618416226652835</v>
+        <v>5.643064589767198</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.51542341217453</v>
+        <v>58.23737386813605</v>
       </c>
       <c r="D33" t="n">
-        <v>5.660797783298826</v>
+        <v>7.277858462936152</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.51304221831501</v>
+        <v>57.44013227279967</v>
       </c>
       <c r="D34" t="n">
-        <v>5.931411704100955</v>
+        <v>6.842112416493884</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>55.95562766440844</v>
+        <v>56.27081699536201</v>
       </c>
       <c r="D35" t="n">
-        <v>6.560194828000988</v>
+        <v>6.729870169350372</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.40685106852933</v>
+        <v>55.55723733353008</v>
       </c>
       <c r="D36" t="n">
-        <v>6.305926308605486</v>
+        <v>5.415259989269692</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.75199018955052</v>
+        <v>54.01352884960033</v>
       </c>
       <c r="D37" t="n">
-        <v>6.791203492029172</v>
+        <v>6.669155193818153</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>52.12793690222056</v>
+        <v>53.15662589710802</v>
       </c>
       <c r="D38" t="n">
-        <v>5.963443806513373</v>
+        <v>6.517148575528993</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.39234898533681</v>
+        <v>53.32292841408824</v>
       </c>
       <c r="D39" t="n">
-        <v>6.139834897712474</v>
+        <v>5.795213023161798</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.51350417099909</v>
+        <v>51.16658530343041</v>
       </c>
       <c r="D40" t="n">
-        <v>7.416852605194843</v>
+        <v>7.129978237938198</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>49.65387192585048</v>
+        <v>49.65559392950588</v>
       </c>
       <c r="D41" t="n">
-        <v>6.411081199952668</v>
+        <v>7.008964521294066</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.04448327630199</v>
+        <v>50.5095483332565</v>
       </c>
       <c r="D42" t="n">
-        <v>6.956512339789684</v>
+        <v>6.631192942128123</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.95889176168163</v>
+        <v>48.05565470934761</v>
       </c>
       <c r="D43" t="n">
-        <v>5.306481330766831</v>
+        <v>6.651108397392951</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.27449433449964</v>
+        <v>48.71197341630943</v>
       </c>
       <c r="D44" t="n">
-        <v>6.016019003779768</v>
+        <v>5.893042073174943</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.49362108326609</v>
+        <v>46.29495227199707</v>
       </c>
       <c r="D45" t="n">
-        <v>6.475280658477112</v>
+        <v>6.147308999013186</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.51505430754018</v>
+        <v>45.26630886173169</v>
       </c>
       <c r="D46" t="n">
-        <v>6.561211600927371</v>
+        <v>6.134828612908674</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.95008044728684</v>
+        <v>43.4777244449638</v>
       </c>
       <c r="D47" t="n">
-        <v>5.944268340753834</v>
+        <v>7.326168709641221</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.84649725216734</v>
+        <v>43.69422505865044</v>
       </c>
       <c r="D48" t="n">
-        <v>6.934187448522331</v>
+        <v>6.211426737895962</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>41.10765692394472</v>
+        <v>42.38645015892808</v>
       </c>
       <c r="D49" t="n">
-        <v>6.834043708663048</v>
+        <v>7.737279464092009</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>39.90692229244801</v>
+        <v>41.76130322601486</v>
       </c>
       <c r="D50" t="n">
-        <v>7.413004435680925</v>
+        <v>6.390580559549942</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.12258268357957</v>
+        <v>39.28815647362914</v>
       </c>
       <c r="D51" t="n">
-        <v>6.372543096718433</v>
+        <v>6.96649938001106</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.0588364521242</v>
+        <v>38.18943858826653</v>
       </c>
       <c r="D52" t="n">
-        <v>7.429429959685946</v>
+        <v>7.584784886061821</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.10623092450979</v>
+        <v>38.20110351249794</v>
       </c>
       <c r="D53" t="n">
-        <v>7.135298880407325</v>
+        <v>6.915128573521945</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.21950347477416</v>
+        <v>35.36483184397476</v>
       </c>
       <c r="D54" t="n">
-        <v>7.757651469906712</v>
+        <v>6.790634228751169</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.04192435763525</v>
+        <v>36.7383068201394</v>
       </c>
       <c r="D55" t="n">
-        <v>6.982466615775084</v>
+        <v>7.127680818143917</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.89645343706511</v>
+        <v>34.2867399940068</v>
       </c>
       <c r="D56" t="n">
-        <v>6.715685788075636</v>
+        <v>8.327212396513655</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.0650549350093</v>
+        <v>34.40039770983488</v>
       </c>
       <c r="D57" t="n">
-        <v>7.482833169721454</v>
+        <v>6.929423243722954</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.10423856551963</v>
+        <v>32.85800072471433</v>
       </c>
       <c r="D58" t="n">
-        <v>8.065459812238858</v>
+        <v>6.738141534768927</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.88760987939683</v>
+        <v>32.49874603479507</v>
       </c>
       <c r="D59" t="n">
-        <v>6.471385208391555</v>
+        <v>7.582526356765597</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.57931732587221</v>
+        <v>31.62567240728185</v>
       </c>
       <c r="D60" t="n">
-        <v>7.296512414414963</v>
+        <v>6.849922860354186</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.21377571778658</v>
+        <v>30.42880233094245</v>
       </c>
       <c r="D61" t="n">
-        <v>6.380798374847071</v>
+        <v>7.359580071401517</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.86424171070839</v>
+        <v>28.0095523162688</v>
       </c>
       <c r="D62" t="n">
-        <v>6.895764414859662</v>
+        <v>7.982374990999194</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.20838475660256</v>
+        <v>27.43404609570385</v>
       </c>
       <c r="D63" t="n">
-        <v>7.100849636741261</v>
+        <v>7.984133682819257</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.48844378563154</v>
+        <v>25.98621928561345</v>
       </c>
       <c r="D64" t="n">
-        <v>7.915938999769226</v>
+        <v>9.562313127585641</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.81519019898591</v>
+        <v>26.054181400198</v>
       </c>
       <c r="D65" t="n">
-        <v>7.284369023800912</v>
+        <v>7.874596331913422</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.52336860249262</v>
+        <v>25.46650837349486</v>
       </c>
       <c r="D66" t="n">
-        <v>7.277529704036585</v>
+        <v>7.450251655196742</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.89693552074237</v>
+        <v>23.63862708223557</v>
       </c>
       <c r="D67" t="n">
-        <v>8.096169724429583</v>
+        <v>7.951388701335555</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.34766242384991</v>
+        <v>21.56761374435652</v>
       </c>
       <c r="D68" t="n">
-        <v>7.290897068542099</v>
+        <v>8.60352312089517</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.30661646265701</v>
+        <v>21.84454367286647</v>
       </c>
       <c r="D69" t="n">
-        <v>7.639710457808641</v>
+        <v>8.779407318652057</v>
       </c>
     </row>
   </sheetData>
